--- a/NformTester/NformTester/Keywordscripts/600.40.30.70_EditCustomGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.70_EditCustomGroup.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7751" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7751" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3847,6 +3847,14 @@
   <si>
     <t>;Clear</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4789,7 +4797,7 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5409,7 +5417,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>802</v>
@@ -5978,7 +5986,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>802</v>
